--- a/PO/ExcelPO/fold.xlsx
+++ b/PO/ExcelPO/fold.xlsx
@@ -2,32 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="北京" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="上海" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,15 +52,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -350,15 +353,582 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -374,22 +944,32 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col hidden="1" max="4" min="1" outlineLevel="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C5:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
-    <row hidden="1" outlineLevel="1" r="1" spans="1:1"/>
-    <row hidden="1" outlineLevel="1" r="2" spans="1:1"/>
-    <row hidden="1" outlineLevel="1" r="3" spans="1:1"/>
-    <row hidden="1" outlineLevel="1" r="4" spans="1:1"/>
-    <row hidden="1" outlineLevel="1" r="5" spans="1:1"/>
-    <row hidden="1" outlineLevel="1" r="6" spans="1:1"/>
-    <row hidden="1" outlineLevel="1" r="7" spans="1:1"/>
-    <row hidden="1" outlineLevel="1" r="8" spans="1:1"/>
-    <row hidden="1" outlineLevel="1" r="9" spans="1:1"/>
-    <row hidden="1" outlineLevel="1" r="10" spans="1:1"/>
+    <row r="5">
+      <c r="C5" t="n">
+        <v>33333</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PO/ExcelPO/fold.xlsx
+++ b/PO/ExcelPO/fold.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/PO/ExcelPO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\PO\ExcelPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1780" windowWidth="14400" windowHeight="18900"/>
+    <workbookView xWindow="2040" yWindow="1776" windowWidth="14400" windowHeight="18900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="北京" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>baidu</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,12 +34,36 @@
     <t>niao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,13 +405,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2</v>
       </c>
@@ -401,7 +425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -418,7 +442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -426,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -440,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -454,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -471,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -488,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -505,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -522,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -539,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -556,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -573,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -590,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -607,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -624,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -641,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -658,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -675,7 +699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -692,7 +716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -709,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -726,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -743,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -760,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -777,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -794,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -811,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -828,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -845,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -862,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -879,7 +903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -896,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -913,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -930,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -947,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -977,7 +1001,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -986,15 +1010,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="3:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>33333</v>
       </c>
